--- a/Files/college_info/all_colleges/VJEC/VJEC_placements.xlsx
+++ b/Files/college_info/all_colleges/VJEC/VJEC_placements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad Arshad Ali\Dropbox\Programming\KMIT\Projects\group\python project on dataset (1st year 2nd sem)\files\VJEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91703\Desktop\gitt\PYTHON PROJECT\github\python_project-dataset\Files\college_info\all_colleges\VJEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83920215-68D7-4AF2-92E3-3D9808158435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47893956-9FE1-450F-A11D-1E65EF97120E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <r>
       <rPr>
@@ -1094,6 +1094,159 @@
   </si>
   <si>
     <t>OFFERS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>NCR CORPORATION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial MT"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ZF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>INFOSYS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial MT"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>LTI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial MT"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>CAPGEMINI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial MT"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>LTI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial MT"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>ACCENTURE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial MT"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>WIPRO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial MT"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>INFOSYS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial MT"/>
+      </rPr>
+      <t>-3</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1211,7 +1364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1251,11 +1404,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1591,8 +1761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1929,8 +2099,8 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>17</v>
+      <c r="B24" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="C24" s="3">
         <v>10</v>
@@ -1957,8 +2127,8 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>23</v>
+      <c r="B26" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="C26" s="3">
         <v>10</v>
@@ -2097,8 +2267,8 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>33</v>
+      <c r="B36" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="C36" s="3">
         <v>8</v>
@@ -2111,8 +2281,8 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>34</v>
+      <c r="B37" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="C37" s="3">
         <v>8</v>
@@ -2167,8 +2337,8 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>38</v>
+      <c r="B41" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="C41" s="3">
         <v>7.5</v>
@@ -2279,8 +2449,8 @@
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>34</v>
+      <c r="B49" s="13" t="s">
+        <v>115</v>
       </c>
       <c r="C49" s="3">
         <v>6.5</v>
@@ -2307,8 +2477,8 @@
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>49</v>
+      <c r="B51" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="C51" s="3">
         <v>6.5</v>
@@ -2335,8 +2505,8 @@
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>84</v>
+      <c r="B53" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="C53" s="3">
         <v>6.14</v>
@@ -2601,8 +2771,8 @@
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>33</v>
+      <c r="B72" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="C72" s="3">
         <v>5</v>
@@ -3231,6 +3401,9 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D118">
     <sortCondition descending="1" ref="C1:C118"/>
   </sortState>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>